--- a/2 26 19 Skip Tracing.xlsx
+++ b/2 26 19 Skip Tracing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rimes\OneDrive\Desktop\Python Practice\WholeSaleScrapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ddf82aa752a6d42/Desktop/Python Practice/WholeSaleScrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39901891-284B-4239-9B8D-FC0D2444017A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:AG1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
